--- a/KD_java/src/dataEngine/DataEngine.xlsx
+++ b/KD_java/src/dataEngine/DataEngine.xlsx
@@ -8,13 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taracz\KD_java\KD_java\bin\dataEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C7521CD-01CA-48BC-B064-C59EAE20FA7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E928EE9-B4B2-4FB2-B31E-3EAF1B095AEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4305" windowWidth="29040" windowHeight="15840" xr2:uid="{756D6F96-C56C-46A1-AAEF-29B37443CBE0}"/>
+    <workbookView xWindow="-28920" yWindow="-4305" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{756D6F96-C56C-46A1-AAEF-29B37443CBE0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Settings" sheetId="4" r:id="rId1"/>
+    <sheet name="Test Cases" sheetId="3" r:id="rId2"/>
+    <sheet name="Test Steps" sheetId="1" r:id="rId3"/>
+    <sheet name="Test Data" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="Action_Keywords">Settings!$D$2:$D$10</definedName>
+    <definedName name="Home_Page_Objects">Settings!$B$2:$B$10</definedName>
+    <definedName name="Login_Page_Objects">Settings!$C$2:$C$10</definedName>
+    <definedName name="Page_Name">Settings!$A$2:$A$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -48,6 +57,9 @@
     <t>LogIn_01</t>
   </si>
   <si>
+    <t>LogIn_02</t>
+  </si>
+  <si>
     <t>TS_001</t>
   </si>
   <si>
@@ -111,32 +123,116 @@
     <t>closeBrowser</t>
   </si>
   <si>
-    <t>click_Logout</t>
-  </si>
-  <si>
-    <t>click_MyAccount</t>
-  </si>
-  <si>
-    <t>input_Username</t>
-  </si>
-  <si>
-    <t>input_Password</t>
-  </si>
-  <si>
-    <t>input_Login</t>
-  </si>
-  <si>
     <t>waitFor</t>
+  </si>
+  <si>
+    <t>Page Object</t>
+  </si>
+  <si>
+    <t>btn_MyAccount</t>
+  </si>
+  <si>
+    <t>txtbx_UserName</t>
+  </si>
+  <si>
+    <t>txtbx_Password</t>
+  </si>
+  <si>
+    <t>btn_LogIn</t>
+  </si>
+  <si>
+    <t>btn_LogOut</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Login to the Online Store Application</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>Data Set</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>testuser_3</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>Page Name</t>
+  </si>
+  <si>
+    <t>Home_Page</t>
+  </si>
+  <si>
+    <t>Login_Page</t>
+  </si>
+  <si>
+    <t>Home_Page Objects</t>
+  </si>
+  <si>
+    <t>Login_Page Object</t>
+  </si>
+  <si>
+    <t>btn_Login</t>
+  </si>
+  <si>
+    <t>Action Keywords</t>
+  </si>
+  <si>
+    <t>navigate</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>testuser_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -181,10 +277,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,8 +290,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,12 +605,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4D8A81-4F74-403D-8139-B40670DEAF6E}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604782CA-C365-4682-AB68-582B84E890E8}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9689450B-F3D8-41A8-A088-754F0670C56F}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4D8A81-4F74-403D-8139-B40670DEAF6E}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +760,238 @@
     <col min="1" max="1" width="15.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="51.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="27.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{D6E03C40-9C25-4599-A3A5-842C519592E6}">
+      <formula1>Page_Name</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{30CE86E9-EA11-4E5A-BDFD-F50AEA8439ED}">
+      <formula1>Action_Keywords</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10" xr:uid="{B38E2D85-FBB1-43E7-8585-B41DCC81285B}">
+      <formula1>INDIRECT(D2)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{A8856F8D-5FAD-4E68-8608-BE6E0063FBFB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD46CED-57F3-469B-AB16-8DA4354621EA}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -527,13 +999,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -541,129 +1013,35 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F58D5E5D-FED0-4437-A086-DB853EE34FAB}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{41A39057-FC82-49AE-A09D-29BF55EDBCBB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/KD_java/src/dataEngine/DataEngine.xlsx
+++ b/KD_java/src/dataEngine/DataEngine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taracz\KD_java\KD_java\bin\dataEngine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taracz\KD_java\KD_java\src\dataEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E928EE9-B4B2-4FB2-B31E-3EAF1B095AEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B815ED8-B21D-4F4F-BBFF-39B8677F6657}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4305" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{756D6F96-C56C-46A1-AAEF-29B37443CBE0}"/>
+    <workbookView xWindow="-28920" yWindow="-4305" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{756D6F96-C56C-46A1-AAEF-29B37443CBE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="4" r:id="rId1"/>
@@ -691,9 +691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9689450B-F3D8-41A8-A088-754F0670C56F}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,9 +750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4D8A81-4F74-403D-8139-B40670DEAF6E}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,6 +802,9 @@
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
@@ -818,6 +821,9 @@
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>25</v>

--- a/KD_java/src/dataEngine/DataEngine.xlsx
+++ b/KD_java/src/dataEngine/DataEngine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taracz\KD_java\KD_java\src\dataEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B815ED8-B21D-4F4F-BBFF-39B8677F6657}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F1B542-A489-484C-839C-36A14CADFE43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4305" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{756D6F96-C56C-46A1-AAEF-29B37443CBE0}"/>
   </bookViews>
@@ -610,7 +610,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
